--- a/Androidベースプロジェクト開発.xlsx
+++ b/Androidベースプロジェクト開発.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shimanukims\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85ED578-C008-4F06-9BD6-8EC84292B1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609D9DE9-8250-4136-B3C4-E2DBB89C6483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{A92EFBD4-DAFF-4B41-9194-5B1083BBE804}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{A92EFBD4-DAFF-4B41-9194-5B1083BBE804}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
-    <sheet name="おまけ①" sheetId="3" r:id="rId4"/>
-    <sheet name="おまけ②" sheetId="4" r:id="rId5"/>
-    <sheet name="生成AI KPT" sheetId="6" r:id="rId6"/>
+    <sheet name="おまけ①" sheetId="3" r:id="rId3"/>
+    <sheet name="おまけ②" sheetId="4" r:id="rId4"/>
+    <sheet name="生成AI KPT" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="243">
   <si>
     <t>◆Androidのベースプロジェクト(サンプルプロジェクト)を作る</t>
   </si>
@@ -93,10 +92,6 @@
     <rPh sb="8" eb="10">
       <t>ケントウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -802,97 +797,6 @@
   </si>
   <si>
     <t>インターフェースと実装の切り分け習得が必要</t>
-  </si>
-  <si>
-    <t>◆プロンプト検討</t>
-    <rPh sb="6" eb="8">
-      <t>ケントウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>生成AIに食わせるプロンプトを検討する</t>
-    <rPh sb="0" eb="2">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケントウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>□技術要素</t>
-    <rPh sb="1" eb="3">
-      <t>ギジュツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヨウソ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・開発言語はKotlin</t>
-    <rPh sb="1" eb="3">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ゲンゴ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・UIの構成はJetpack Compose</t>
-    <rPh sb="4" eb="6">
-      <t>コウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・DIライブラリは Hilt を使う</t>
-    <rPh sb="16" eb="17">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・アーキテクチャはMVVM+Clean Architecture で作る</t>
-    <rPh sb="34" eb="35">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Androidのスマートフォンアプリを開発するためのベースプロジェクトを作ってください。</t>
-    <rPh sb="19" eb="21">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・Http通信APIはRetrofitを使う</t>
-    <rPh sb="5" eb="7">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ベースプロジェクトの最終的な完成系は</t>
-    <rPh sb="10" eb="13">
-      <t>サイシュウテキ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>カンセイケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>□依存関係インジェクション(DI) と Hilt</t>
@@ -1633,7 +1537,8 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>同じプロンプトを使って指示を出したときに出来上がる成果物がどこまで同じものができるのか</t>
+    <t>同じプロンプトを使って指示を出したときに出来上がる成果物がどこまで同じものができるのか
+⇒検証した結果、同じプロンプト、指示の出し方でも、不透明な部分がある場合は別のものができる</t>
     <rPh sb="0" eb="1">
       <t>オナ</t>
     </rPh>
@@ -1657,6 +1562,190 @@
     </rPh>
     <rPh sb="33" eb="34">
       <t>オナ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="69" eb="72">
+      <t>フトウメイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本動作部分でバグが発生する
+⇒動作確認をするとすぐに見つけられるようなバグがある</t>
+    <rPh sb="0" eb="6">
+      <t>キホンドウサブブン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(Claude Code)
+生成途中で内容の確認が可能である。
+その時点で確認して修正が必要なことが分かれば、そのタイミングで修正を加えられる</t>
+    <rPh sb="14" eb="16">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>クワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レビュー観点を与えてレビュー依頼を出せば、その観点での成果物確認を行ってくれる</t>
+    <rPh sb="4" eb="6">
+      <t>カンテン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カンテン</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>セイカブツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用するもののバージョンによっては、最新の内容が入っていない状態で生成されるので、最適な回答にならないことがある
+⇒どちらにせよ生成されたものの精査は必要になる</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サイテキ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>セイサ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レビュー観点書をインプットとして、その観点がすべて網羅できているかのチェックをしてみたい
+⇒人間が実施したチェックとの差分も見てみたい</t>
+    <rPh sb="4" eb="7">
+      <t>カンテンショ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンテン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>モウラ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ミ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2376,12 +2465,12 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -2396,27 +2485,27 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2440,149 +2529,149 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.5">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="36" customHeight="1">
       <c r="B6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="36" customHeight="1">
       <c r="B7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="36" customHeight="1">
       <c r="B8" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="36" customHeight="1">
       <c r="B9" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="36" customHeight="1">
       <c r="B10" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="36" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="36" customHeight="1">
       <c r="B14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="36" customHeight="1">
       <c r="B15" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" customHeight="1">
       <c r="B18" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>110</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="36" customHeight="1">
       <c r="B19" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="36" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" customHeight="1">
       <c r="B21" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="36" customHeight="1">
       <c r="B22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2598,81 +2687,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A62B8D-8507-4B67-B54E-239324CF5080}">
-  <dimension ref="A1:A13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="26.5">
-      <c r="A1" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81AC959E-1D60-4DA8-9926-067FCD20662D}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -2682,176 +2700,176 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="B21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="60" customHeight="1">
       <c r="B22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="60" customHeight="1">
       <c r="B23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="60" customHeight="1">
       <c r="B24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="60" customHeight="1">
       <c r="B25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="B28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="B29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="B30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="B31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="B32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2860,7 +2878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFECFFD-9005-42AD-B0A6-06ACC42C5AED}">
   <dimension ref="A1:J97"/>
   <sheetViews>
@@ -2874,610 +2892,610 @@
   <sheetData>
     <row r="1" spans="1:10" ht="22.5">
       <c r="A1" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36" customHeight="1">
       <c r="B4" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="36">
       <c r="B6" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="B10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="22.5">
       <c r="A13" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="36" customHeight="1">
       <c r="B16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="36" customHeight="1">
       <c r="B17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="36" customHeight="1">
       <c r="B18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="36" customHeight="1">
       <c r="B19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="B21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="B22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="22.5">
       <c r="A24" s="16" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="10"/>
       <c r="B27" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="B29" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="B30" s="17" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="36" customHeight="1">
       <c r="B31" s="9" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="36" customHeight="1">
       <c r="B32" s="7" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="36" customHeight="1">
       <c r="B33" s="9" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D37" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="D39" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D41" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D42" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="17"/>
       <c r="C48" s="17" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="70" customHeight="1">
       <c r="B49" s="9" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E49" s="15"/>
     </row>
     <row r="50" spans="1:5" ht="70" customHeight="1">
       <c r="B50" s="7" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="70" customHeight="1">
       <c r="B51" s="9" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="70" customHeight="1">
       <c r="B52" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="70" customHeight="1">
       <c r="B53" s="9" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="70" customHeight="1">
       <c r="B54" s="7" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="10" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="B58" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="B59" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="B61" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="B62" s="17" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="36">
       <c r="B63" s="8" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D63" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="36">
       <c r="B64" s="3" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="36">
       <c r="B65" s="8" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="36">
       <c r="B66" s="3" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="B68" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="B69" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="22.5">
       <c r="A72" s="16" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
       <c r="B73" s="17" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20" customHeight="1">
       <c r="B74" s="9" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
       <c r="B75" s="7" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
       <c r="B76" s="9" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
       <c r="B77" s="7" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20" customHeight="1">
       <c r="B78" s="9" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" customHeight="1">
       <c r="B79" s="7" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">
       <c r="B80" s="9" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="82" spans="2:3">
       <c r="B82" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="2:3">
       <c r="B83" s="19"/>
       <c r="C83" s="19" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="84" spans="2:3">
       <c r="B84" s="21" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" s="22"/>
       <c r="C85" s="7" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="B86" s="22"/>
       <c r="C86" s="7" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="36">
       <c r="B87" s="23"/>
       <c r="C87" s="7" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="18" customHeight="1">
       <c r="B88" s="21" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="B89" s="22"/>
       <c r="C89" s="7" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="90" spans="2:3">
       <c r="B90" s="22"/>
       <c r="C90" s="7" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="91" spans="2:3">
       <c r="B91" s="22"/>
       <c r="C91" s="7" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92" spans="2:3">
       <c r="B92" s="22"/>
       <c r="C92" s="7" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="93" spans="2:3" ht="18" customHeight="1">
       <c r="B93" s="23"/>
       <c r="C93" s="7" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="95" spans="2:3">
       <c r="B95" s="15" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="96" spans="2:3">
       <c r="B96" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="15" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3491,7 +3509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD1F546-A07A-4718-9537-096F5D06D8FE}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -3504,60 +3522,70 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="36">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="72">
       <c r="A2" s="7" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C2" s="7"/>
+        <v>231</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="72">
       <c r="A3" s="7" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>248</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" ht="54">
       <c r="A4" s="7" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" ht="54">
       <c r="A5" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="B5" s="7"/>
+        <v>235</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>238</v>
+      </c>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+    <row r="6" spans="1:3" ht="72">
+      <c r="A6" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>241</v>
+      </c>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:3" ht="54">
+      <c r="A7" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="7"/>
